--- a/SchedulingData/dynamic11/pso/scheduling2_15.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,173 +462,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>200.2</v>
+        <v>243.08</v>
       </c>
       <c r="D2" t="n">
-        <v>251.32</v>
+        <v>283.08</v>
       </c>
       <c r="E2" t="n">
-        <v>15.888</v>
+        <v>14.392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>251.32</v>
+        <v>260.46</v>
       </c>
       <c r="D3" t="n">
-        <v>307.72</v>
+        <v>324.94</v>
       </c>
       <c r="E3" t="n">
-        <v>11.868</v>
+        <v>7.876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>267.72</v>
+        <v>200.18</v>
       </c>
       <c r="D4" t="n">
-        <v>317.78</v>
+        <v>247.18</v>
       </c>
       <c r="E4" t="n">
-        <v>10.432</v>
+        <v>14.812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>208.12</v>
+        <v>247.18</v>
       </c>
       <c r="D5" t="n">
-        <v>261.92</v>
+        <v>312.5</v>
       </c>
       <c r="E5" t="n">
-        <v>17.808</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>244.94</v>
+        <v>238.74</v>
       </c>
       <c r="D6" t="n">
-        <v>316.74</v>
+        <v>289.6</v>
       </c>
       <c r="E6" t="n">
-        <v>11.496</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>200.98</v>
+        <v>283.08</v>
       </c>
       <c r="D7" t="n">
-        <v>240.94</v>
+        <v>324.14</v>
       </c>
       <c r="E7" t="n">
-        <v>12.596</v>
+        <v>11.416</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>240.94</v>
+        <v>206.42</v>
       </c>
       <c r="D8" t="n">
-        <v>296.24</v>
+        <v>255.8</v>
       </c>
       <c r="E8" t="n">
-        <v>10.176</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>296.24</v>
+        <v>324.14</v>
       </c>
       <c r="D9" t="n">
-        <v>360.1</v>
+        <v>407.54</v>
       </c>
       <c r="E9" t="n">
-        <v>7.42</v>
+        <v>8.176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>258.24</v>
+        <v>205.08</v>
       </c>
       <c r="D10" t="n">
-        <v>315.46</v>
+        <v>272.16</v>
       </c>
       <c r="E10" t="n">
-        <v>12.604</v>
+        <v>14.744</v>
       </c>
     </row>
     <row r="11">
@@ -637,117 +637,117 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>316.74</v>
+        <v>272.16</v>
       </c>
       <c r="D11" t="n">
-        <v>385.18</v>
+        <v>316.46</v>
       </c>
       <c r="E11" t="n">
-        <v>9.252000000000001</v>
+        <v>11.444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>307.72</v>
+        <v>407.54</v>
       </c>
       <c r="D12" t="n">
-        <v>340.22</v>
+        <v>484.24</v>
       </c>
       <c r="E12" t="n">
-        <v>9.747999999999999</v>
+        <v>5.096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>317.78</v>
+        <v>484.24</v>
       </c>
       <c r="D13" t="n">
-        <v>363.84</v>
+        <v>541.34</v>
       </c>
       <c r="E13" t="n">
-        <v>7.456</v>
+        <v>2.976</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>385.18</v>
+        <v>255.8</v>
       </c>
       <c r="D14" t="n">
-        <v>434.88</v>
+        <v>288.6</v>
       </c>
       <c r="E14" t="n">
-        <v>6.392</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>434.88</v>
+        <v>289.6</v>
       </c>
       <c r="D15" t="n">
-        <v>492.38</v>
+        <v>363.24</v>
       </c>
       <c r="E15" t="n">
-        <v>4.232</v>
+        <v>8.456</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>315.46</v>
+        <v>324.94</v>
       </c>
       <c r="D16" t="n">
-        <v>393.76</v>
+        <v>384.7</v>
       </c>
       <c r="E16" t="n">
-        <v>8.864000000000001</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -755,70 +755,70 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>360.1</v>
+        <v>312.5</v>
       </c>
       <c r="D17" t="n">
-        <v>395.16</v>
+        <v>352.56</v>
       </c>
       <c r="E17" t="n">
-        <v>5.044</v>
+        <v>9.004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>340.22</v>
+        <v>541.34</v>
       </c>
       <c r="D18" t="n">
-        <v>394.62</v>
+        <v>607.29</v>
       </c>
       <c r="E18" t="n">
-        <v>6.448</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>492.38</v>
+        <v>607.29</v>
       </c>
       <c r="D19" t="n">
-        <v>545.08</v>
+        <v>690.99</v>
       </c>
       <c r="E19" t="n">
-        <v>1.592</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>545.08</v>
+        <v>288.6</v>
       </c>
       <c r="D20" t="n">
-        <v>643.3</v>
+        <v>346.5</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="21">
@@ -827,98 +827,98 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>393.76</v>
+        <v>352.56</v>
       </c>
       <c r="D21" t="n">
-        <v>448.36</v>
+        <v>399.58</v>
       </c>
       <c r="E21" t="n">
-        <v>6.004</v>
+        <v>6.412</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>261.92</v>
+        <v>346.5</v>
       </c>
       <c r="D22" t="n">
-        <v>342.54</v>
+        <v>429.6</v>
       </c>
       <c r="E22" t="n">
-        <v>14.336</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>448.36</v>
+        <v>363.24</v>
       </c>
       <c r="D23" t="n">
-        <v>482.64</v>
+        <v>420.56</v>
       </c>
       <c r="E23" t="n">
-        <v>3.716</v>
+        <v>5.864</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>363.84</v>
+        <v>316.46</v>
       </c>
       <c r="D24" t="n">
-        <v>405.96</v>
+        <v>361.76</v>
       </c>
       <c r="E24" t="n">
-        <v>4.864</v>
+        <v>9.023999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>482.64</v>
+        <v>384.7</v>
       </c>
       <c r="D25" t="n">
-        <v>546.84</v>
+        <v>438.88</v>
       </c>
       <c r="E25" t="n">
-        <v>0.416</v>
+        <v>2.692</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>546.84</v>
+        <v>429.6</v>
       </c>
       <c r="D26" t="n">
-        <v>632.61</v>
+        <v>491.44</v>
       </c>
       <c r="E26" t="n">
         <v>30</v>
@@ -937,227 +937,227 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>405.96</v>
+        <v>491.44</v>
       </c>
       <c r="D27" t="n">
-        <v>496.26</v>
+        <v>551.04</v>
       </c>
       <c r="E27" t="n">
-        <v>0.444</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>496.26</v>
+        <v>438.88</v>
       </c>
       <c r="D28" t="n">
-        <v>596.87</v>
+        <v>471.2</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>632.61</v>
+        <v>471.2</v>
       </c>
       <c r="D29" t="n">
-        <v>691.91</v>
+        <v>557.6</v>
       </c>
       <c r="E29" t="n">
-        <v>26.76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>342.54</v>
+        <v>399.58</v>
       </c>
       <c r="D30" t="n">
-        <v>379.54</v>
+        <v>473.36</v>
       </c>
       <c r="E30" t="n">
-        <v>12.256</v>
+        <v>3.604</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>379.54</v>
+        <v>557.6</v>
       </c>
       <c r="D31" t="n">
-        <v>427.2</v>
+        <v>626.88</v>
       </c>
       <c r="E31" t="n">
-        <v>9.119999999999999</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>596.87</v>
+        <v>551.04</v>
       </c>
       <c r="D32" t="n">
-        <v>631.95</v>
+        <v>598.6</v>
       </c>
       <c r="E32" t="n">
-        <v>27.192</v>
+        <v>23.564</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>427.2</v>
+        <v>473.36</v>
       </c>
       <c r="D33" t="n">
-        <v>480.1</v>
+        <v>540.66</v>
       </c>
       <c r="E33" t="n">
-        <v>6.96</v>
+        <v>1.444</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>394.62</v>
+        <v>540.66</v>
       </c>
       <c r="D34" t="n">
-        <v>461.32</v>
+        <v>639.0700000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>3.368</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>461.32</v>
+        <v>361.76</v>
       </c>
       <c r="D35" t="n">
-        <v>505.18</v>
+        <v>406.82</v>
       </c>
       <c r="E35" t="n">
-        <v>0.612</v>
+        <v>6.648</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>505.18</v>
+        <v>406.82</v>
       </c>
       <c r="D36" t="n">
-        <v>605.26</v>
+        <v>463.82</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>3.568</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>395.16</v>
+        <v>463.82</v>
       </c>
       <c r="D37" t="n">
-        <v>480.16</v>
+        <v>547.1799999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>1.144</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>480.16</v>
+        <v>547.1799999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>544.87</v>
+        <v>646.86</v>
       </c>
       <c r="E38" t="n">
         <v>30</v>
@@ -1165,135 +1165,116 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>544.87</v>
+        <v>420.56</v>
       </c>
       <c r="D39" t="n">
-        <v>577.5700000000001</v>
+        <v>462.2</v>
       </c>
       <c r="E39" t="n">
-        <v>27.92</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>643.3</v>
+        <v>462.2</v>
       </c>
       <c r="D40" t="n">
-        <v>700.34</v>
+        <v>512</v>
       </c>
       <c r="E40" t="n">
-        <v>27.456</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>480.1</v>
+        <v>512</v>
       </c>
       <c r="D41" t="n">
-        <v>532.12</v>
+        <v>587.88</v>
       </c>
       <c r="E41" t="n">
-        <v>4.368</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>532.12</v>
+        <v>646.86</v>
       </c>
       <c r="D42" t="n">
-        <v>566.6</v>
+        <v>679.5599999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>1.56</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>566.6</v>
+        <v>626.88</v>
       </c>
       <c r="D43" t="n">
-        <v>655.08</v>
+        <v>700.54</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>24.956</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>577.5700000000001</v>
+        <v>587.88</v>
       </c>
       <c r="D44" t="n">
-        <v>636.85</v>
+        <v>646.8200000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>25.112</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>5</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>pond9</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>631.95</v>
-      </c>
-      <c r="D45" t="n">
-        <v>715.05</v>
-      </c>
-      <c r="E45" t="n">
-        <v>23.952</v>
+        <v>27.756</v>
       </c>
     </row>
   </sheetData>
